--- a/pred_ohlcv/54_21/2019-11-01 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 RNT ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>3517132.024014085</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3476073.920514084</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3454204.021314084</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3190326.088814084</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2954832.850514084</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2887774.990514084</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2924000.764414085</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2891389.977714085</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2855001.465378417</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1786307.184778417</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2266440.323578417</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 RNT ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>3517132.024014085</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3476073.920514084</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3454204.021314084</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3190326.088814084</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2954832.850514084</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2887774.990514084</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2924000.764414085</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2891389.977714085</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3250940.797278417</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2855001.465378417</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1786307.184778417</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2266440.323578417</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2271952.956685266</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
